--- a/raw_data/20200818_saline/20200818_Sensor2_Test_14.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_14.xlsx
@@ -1,553 +1,969 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E475D1-29C7-4497-A307-ED2CC2C5DE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>12072.155531</v>
       </c>
       <c r="B2" s="1">
-        <v>3.353377</v>
+        <v>3.3533770000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1242.810000</v>
+        <v>1242.81</v>
       </c>
       <c r="D2" s="1">
-        <v>-306.111000</v>
+        <v>-306.11099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>12082.526376</v>
       </c>
       <c r="G2" s="1">
-        <v>3.356257</v>
+        <v>3.3562569999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1268.610000</v>
+        <v>1268.6099999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-263.999000</v>
+        <v>-263.99900000000002</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>12092.976090</v>
+        <v>12092.97609</v>
       </c>
       <c r="L2" s="1">
-        <v>3.359160</v>
+        <v>3.3591600000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1304.580000</v>
+        <v>1304.58</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.406000</v>
+        <v>-202.40600000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>12103.465519</v>
+        <v>12103.465518999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>3.362074</v>
+        <v>3.3620739999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>1315.980000</v>
+        <v>1315.98</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.147000</v>
+        <v>-184.14699999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>12114.023854</v>
+        <v>12114.023853999999</v>
       </c>
       <c r="V2" s="1">
-        <v>3.365007</v>
+        <v>3.3650069999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1329.090000</v>
+        <v>1329.09</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.715000</v>
+        <v>-170.715</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>12124.435345</v>
@@ -556,88 +972,88 @@
         <v>3.367899</v>
       </c>
       <c r="AB2" s="1">
-        <v>1346.130000</v>
+        <v>1346.13</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.697000</v>
+        <v>-168.697</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>12135.004099</v>
       </c>
       <c r="AF2" s="1">
-        <v>3.370834</v>
+        <v>3.3708339999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1358.880000</v>
+        <v>1358.88</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.732000</v>
+        <v>-178.732</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>12145.438437</v>
+        <v>12145.438437000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.373733</v>
+        <v>3.3737330000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1379.400000</v>
+        <v>1379.4</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.987000</v>
+        <v>-208.98699999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>12156.023065</v>
+        <v>12156.023064999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.376673</v>
+        <v>3.3766729999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1401.000000</v>
+        <v>1401</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.266000</v>
+        <v>-253.26599999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>12167.007466</v>
+        <v>12167.007465999999</v>
       </c>
       <c r="AU2" s="1">
         <v>3.379724</v>
       </c>
       <c r="AV2" s="1">
-        <v>1425.420000</v>
+        <v>1425.42</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.799000</v>
+        <v>-313.79899999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>12178.426859</v>
+        <v>12178.426858999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.382896</v>
+        <v>3.3828960000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1444.720000</v>
+        <v>1444.72</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.338000</v>
+        <v>-366.33800000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>12189.381003</v>
@@ -646,28 +1062,28 @@
         <v>3.385939</v>
       </c>
       <c r="BF2" s="1">
-        <v>1529.680000</v>
+        <v>1529.68</v>
       </c>
       <c r="BG2" s="1">
-        <v>-616.879000</v>
+        <v>-616.87900000000002</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>12200.559340</v>
+        <v>12200.55934</v>
       </c>
       <c r="BJ2" s="1">
-        <v>3.389044</v>
+        <v>3.3890440000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1683.510000</v>
+        <v>1683.51</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1066.690000</v>
+        <v>-1066.69</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>12210.882575</v>
@@ -676,195 +1092,195 @@
         <v>3.391912</v>
       </c>
       <c r="BP2" s="1">
-        <v>1977.980000</v>
+        <v>1977.98</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1847.910000</v>
+        <v>-1847.91</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>12222.030656</v>
+        <v>12222.030656000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>3.395009</v>
+        <v>3.3950089999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2364.910000</v>
+        <v>2364.91</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2752.620000</v>
+        <v>-2752.62</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>12232.695667</v>
       </c>
       <c r="BY2" s="1">
-        <v>3.397971</v>
+        <v>3.3979710000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2853.820000</v>
+        <v>2853.82</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3739.460000</v>
+        <v>-3739.46</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>12243.925556</v>
       </c>
       <c r="CD2" s="1">
-        <v>3.401090</v>
+        <v>3.4010899999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>4304.390000</v>
+        <v>4304.3900000000003</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6121.780000</v>
+        <v>-6121.78</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>12072.506693</v>
+        <v>12072.506692999999</v>
       </c>
       <c r="B3" s="1">
-        <v>3.353474</v>
+        <v>3.3534739999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>1243.320000</v>
+        <v>1243.32</v>
       </c>
       <c r="D3" s="1">
-        <v>-305.650000</v>
+        <v>-305.64999999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>12082.898871</v>
+        <v>12082.898870999999</v>
       </c>
       <c r="G3" s="1">
-        <v>3.356361</v>
+        <v>3.3563610000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1268.680000</v>
+        <v>1268.68</v>
       </c>
       <c r="I3" s="1">
-        <v>-264.350000</v>
+        <v>-264.35000000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>12093.348128</v>
       </c>
       <c r="L3" s="1">
-        <v>3.359263</v>
+        <v>3.3592629999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1303.940000</v>
+        <v>1303.94</v>
       </c>
       <c r="N3" s="1">
-        <v>-202.434000</v>
+        <v>-202.434</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>12103.830540</v>
+        <v>12103.830540000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>3.362175</v>
+        <v>3.3621750000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1315.940000</v>
+        <v>1315.94</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.138000</v>
+        <v>-184.13800000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>12114.373502</v>
       </c>
       <c r="V3" s="1">
-        <v>3.365104</v>
+        <v>3.3651040000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1329.030000</v>
+        <v>1329.03</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.675000</v>
+        <v>-170.67500000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>12125.129249</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.368091</v>
+        <v>3.3680910000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>1346.090000</v>
+        <v>1346.09</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.808000</v>
+        <v>-168.80799999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>12135.664796</v>
+        <v>12135.664795999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.371018</v>
+        <v>3.3710179999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>1358.940000</v>
+        <v>1358.94</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.713000</v>
+        <v>-178.71299999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>12146.121925</v>
+        <v>12146.121924999999</v>
       </c>
       <c r="AK3" s="1">
         <v>3.373923</v>
       </c>
       <c r="AL3" s="1">
-        <v>1379.430000</v>
+        <v>1379.43</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.998000</v>
+        <v>-208.99799999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>12156.694646</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.376860</v>
+        <v>3.3768600000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1400.980000</v>
+        <v>1400.98</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.261000</v>
+        <v>-253.261</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>12167.683696</v>
@@ -873,121 +1289,121 @@
         <v>3.379912</v>
       </c>
       <c r="AV3" s="1">
-        <v>1425.430000</v>
+        <v>1425.43</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.824000</v>
+        <v>-313.82400000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>12178.836091</v>
+        <v>12178.836090999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>3.383010</v>
+        <v>3.3830100000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1444.690000</v>
+        <v>1444.69</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.332000</v>
+        <v>-366.33199999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>12189.832859</v>
       </c>
       <c r="BE3" s="1">
-        <v>3.386065</v>
+        <v>3.3860649999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1529.620000</v>
+        <v>1529.62</v>
       </c>
       <c r="BG3" s="1">
-        <v>-616.863000</v>
+        <v>-616.86300000000006</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>12200.938285</v>
       </c>
       <c r="BJ3" s="1">
-        <v>3.389150</v>
+        <v>3.3891499999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1683.500000</v>
+        <v>1683.5</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1066.840000</v>
+        <v>-1066.8399999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>12211.303679</v>
+        <v>12211.303679000001</v>
       </c>
       <c r="BO3" s="1">
         <v>3.392029</v>
       </c>
       <c r="BP3" s="1">
-        <v>1977.730000</v>
+        <v>1977.73</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1848.170000</v>
+        <v>-1848.17</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>12222.521200</v>
+        <v>12222.521199999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>3.395145</v>
+        <v>3.3951449999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2364.710000</v>
+        <v>2364.71</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2752.550000</v>
+        <v>-2752.55</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>12233.158929</v>
+        <v>12233.158928999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>3.398100</v>
+        <v>3.3980999999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2853.610000</v>
+        <v>2853.61</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3739.090000</v>
+        <v>-3739.09</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>12244.214722</v>
+        <v>12244.214722000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>3.401171</v>
+        <v>3.4011710000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>4291.470000</v>
+        <v>4291.47</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6111.110000</v>
+        <v>-6111.11</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>12073.162902</v>
       </c>
@@ -995,13 +1411,13 @@
         <v>3.353656</v>
       </c>
       <c r="C4" s="1">
-        <v>1243.210000</v>
+        <v>1243.21</v>
       </c>
       <c r="D4" s="1">
-        <v>-306.082000</v>
+        <v>-306.08199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>12083.546648</v>
@@ -1010,148 +1426,148 @@
         <v>3.356541</v>
       </c>
       <c r="H4" s="1">
-        <v>1268.880000</v>
+        <v>1268.8800000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-264.091000</v>
+        <v>-264.09100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>12093.988955</v>
+        <v>12093.988955000001</v>
       </c>
       <c r="L4" s="1">
-        <v>3.359441</v>
+        <v>3.3594409999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1304.220000</v>
+        <v>1304.22</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.467000</v>
+        <v>-202.46700000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>12104.476829</v>
+        <v>12104.476828999999</v>
       </c>
       <c r="Q4" s="1">
         <v>3.362355</v>
       </c>
       <c r="R4" s="1">
-        <v>1315.980000</v>
+        <v>1315.98</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.063000</v>
+        <v>-184.06299999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>12115.015821</v>
+        <v>12115.015821000001</v>
       </c>
       <c r="V4" s="1">
-        <v>3.365282</v>
+        <v>3.3652820000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1328.920000</v>
+        <v>1328.92</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.681000</v>
+        <v>-170.68100000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>12125.518113</v>
       </c>
       <c r="AA4" s="1">
-        <v>3.368199</v>
+        <v>3.3681990000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1345.840000</v>
+        <v>1345.84</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.904000</v>
+        <v>-168.904</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>12136.048674</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.371125</v>
+        <v>3.3711250000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1358.910000</v>
+        <v>1358.91</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.730000</v>
+        <v>-178.73</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>12146.513268</v>
+        <v>12146.513268000001</v>
       </c>
       <c r="AK4" s="1">
         <v>3.374031</v>
       </c>
       <c r="AL4" s="1">
-        <v>1379.400000</v>
+        <v>1379.4</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.987000</v>
+        <v>-208.98699999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>12157.114789</v>
+        <v>12157.114788999999</v>
       </c>
       <c r="AP4" s="1">
         <v>3.376976</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1400.980000</v>
+        <v>1400.98</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.280000</v>
+        <v>-253.28</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>12168.111063</v>
       </c>
       <c r="AU4" s="1">
-        <v>3.380031</v>
+        <v>3.3800309999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1425.430000</v>
+        <v>1425.43</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.815000</v>
+        <v>-313.815</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>12179.192680</v>
+        <v>12179.19268</v>
       </c>
       <c r="AZ4" s="1">
-        <v>3.383109</v>
+        <v>3.3831090000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1444.700000</v>
+        <v>1444.7</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.287000</v>
+        <v>-366.28699999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>12190.189519</v>
@@ -1160,330 +1576,330 @@
         <v>3.386164</v>
       </c>
       <c r="BF4" s="1">
-        <v>1529.590000</v>
+        <v>1529.59</v>
       </c>
       <c r="BG4" s="1">
-        <v>-616.845000</v>
+        <v>-616.84500000000003</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>12201.312796</v>
       </c>
       <c r="BJ4" s="1">
-        <v>3.389254</v>
+        <v>3.3892540000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1683.450000</v>
+        <v>1683.45</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1066.780000</v>
+        <v>-1066.78</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>12211.737678</v>
       </c>
       <c r="BO4" s="1">
-        <v>3.392149</v>
+        <v>3.3921489999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1977.720000</v>
+        <v>1977.72</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1848.030000</v>
+        <v>-1848.03</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>12222.954207</v>
+        <v>12222.954207000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>3.395265</v>
+        <v>3.3952650000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>2364.310000</v>
+        <v>2364.31</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2752.350000</v>
+        <v>-2752.35</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>12233.579505</v>
       </c>
       <c r="BY4" s="1">
-        <v>3.398217</v>
+        <v>3.3982169999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2853.160000</v>
+        <v>2853.16</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3739.960000</v>
+        <v>-3739.96</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>12244.732546</v>
+        <v>12244.732545999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>3.401315</v>
+        <v>3.4013149999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4283.380000</v>
+        <v>4283.38</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6120.980000</v>
+        <v>-6120.98</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>12073.534404</v>
       </c>
       <c r="B5" s="1">
-        <v>3.353760</v>
+        <v>3.3537599999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1243.170000</v>
+        <v>1243.17</v>
       </c>
       <c r="D5" s="1">
-        <v>-305.706000</v>
+        <v>-305.70600000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>12083.929090</v>
+        <v>12083.92909</v>
       </c>
       <c r="G5" s="1">
-        <v>3.356647</v>
+        <v>3.3566470000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>1268.800000</v>
+        <v>1268.8</v>
       </c>
       <c r="I5" s="1">
-        <v>-263.285000</v>
+        <v>-263.28500000000003</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>12094.382248</v>
       </c>
       <c r="L5" s="1">
-        <v>3.359551</v>
+        <v>3.3595510000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1304.100000</v>
+        <v>1304.0999999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.077000</v>
+        <v>-202.077</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>12104.876603</v>
+        <v>12104.876603000001</v>
       </c>
       <c r="Q5" s="1">
         <v>3.362466</v>
       </c>
       <c r="R5" s="1">
-        <v>1316.050000</v>
+        <v>1316.05</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.105000</v>
+        <v>-184.10499999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>12115.403724</v>
       </c>
       <c r="V5" s="1">
-        <v>3.365390</v>
+        <v>3.3653900000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1329.020000</v>
+        <v>1329.02</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.673000</v>
+        <v>-170.673</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>12125.866799</v>
+        <v>12125.866798999999</v>
       </c>
       <c r="AA5" s="1">
         <v>3.368296</v>
       </c>
       <c r="AB5" s="1">
-        <v>1346.070000</v>
+        <v>1346.07</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.067000</v>
+        <v>-169.06700000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>12136.392897</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.371220</v>
+        <v>3.3712200000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1358.950000</v>
+        <v>1358.95</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.673000</v>
+        <v>-178.673</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>12146.860965</v>
       </c>
       <c r="AK5" s="1">
-        <v>3.374128</v>
+        <v>3.3741279999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>1379.390000</v>
+        <v>1379.39</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.985000</v>
+        <v>-208.98500000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>12157.492710</v>
+        <v>12157.49271</v>
       </c>
       <c r="AP5" s="1">
         <v>3.377081</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1400.980000</v>
+        <v>1400.98</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.255000</v>
+        <v>-253.255</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>12168.503895</v>
       </c>
       <c r="AU5" s="1">
-        <v>3.380140</v>
+        <v>3.3801399999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1425.440000</v>
+        <v>1425.44</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.782000</v>
+        <v>-313.78199999999998</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>12179.554760</v>
+        <v>12179.554760000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>3.383210</v>
+        <v>3.3832100000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1444.730000</v>
+        <v>1444.73</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.349000</v>
+        <v>-366.34899999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>12190.552058</v>
+        <v>12190.552057999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>3.386264</v>
+        <v>3.3862640000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1529.620000</v>
+        <v>1529.62</v>
       </c>
       <c r="BG5" s="1">
-        <v>-616.849000</v>
+        <v>-616.84900000000005</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>12201.736347</v>
       </c>
       <c r="BJ5" s="1">
-        <v>3.389371</v>
+        <v>3.3893710000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1683.380000</v>
+        <v>1683.38</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1066.700000</v>
+        <v>-1066.7</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>12212.126078</v>
+        <v>12212.126077999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>3.392257</v>
+        <v>3.3922569999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1977.680000</v>
+        <v>1977.68</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1848.050000</v>
+        <v>-1848.05</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>12223.394669</v>
+        <v>12223.394668999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>3.395387</v>
+        <v>3.3953869999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2364.320000</v>
+        <v>2364.3200000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2752.180000</v>
+        <v>-2752.18</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>12234.021440</v>
+        <v>12234.02144</v>
       </c>
       <c r="BY5" s="1">
         <v>3.398339</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2853.570000</v>
+        <v>2853.57</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3739.030000</v>
+        <v>-3739.03</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>12245.275169</v>
@@ -1492,120 +1908,120 @@
         <v>3.401465</v>
       </c>
       <c r="CE5" s="1">
-        <v>4286.080000</v>
+        <v>4286.08</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6112.660000</v>
+        <v>-6112.66</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>12073.878629</v>
+        <v>12073.878629000001</v>
       </c>
       <c r="B6" s="1">
-        <v>3.353855</v>
+        <v>3.3538549999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>1242.990000</v>
+        <v>1242.99</v>
       </c>
       <c r="D6" s="1">
-        <v>-305.864000</v>
+        <v>-305.86399999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>12084.275272</v>
+        <v>12084.275272000001</v>
       </c>
       <c r="G6" s="1">
-        <v>3.356743</v>
+        <v>3.3567429999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>1268.650000</v>
+        <v>1268.6500000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-264.649000</v>
+        <v>-264.649</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>12094.731459</v>
+        <v>12094.731459000001</v>
       </c>
       <c r="L6" s="1">
         <v>3.359648</v>
       </c>
       <c r="M6" s="1">
-        <v>1304.220000</v>
+        <v>1304.22</v>
       </c>
       <c r="N6" s="1">
-        <v>-202.217000</v>
+        <v>-202.21700000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>12105.225322</v>
       </c>
       <c r="Q6" s="1">
-        <v>3.362563</v>
+        <v>3.3625630000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>1316.040000</v>
+        <v>1316.04</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.145000</v>
+        <v>-184.14500000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>12115.732044</v>
       </c>
       <c r="V6" s="1">
-        <v>3.365481</v>
+        <v>3.3654809999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1329.020000</v>
+        <v>1329.02</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.746000</v>
+        <v>-170.74600000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>12126.215023</v>
+        <v>12126.215023000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>3.368393</v>
+        <v>3.3683930000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>1346.150000</v>
+        <v>1346.15</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.888000</v>
+        <v>-168.88800000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>12136.740594</v>
+        <v>12136.740594000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.371317</v>
+        <v>3.3713169999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1358.930000</v>
+        <v>1358.93</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.725000</v>
+        <v>-178.72499999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>12147.210147</v>
@@ -1614,360 +2030,360 @@
         <v>3.374225</v>
       </c>
       <c r="AL6" s="1">
-        <v>1379.410000</v>
+        <v>1379.41</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.990000</v>
+        <v>-208.99</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>12157.851336</v>
       </c>
       <c r="AP6" s="1">
-        <v>3.377181</v>
+        <v>3.3771810000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1400.960000</v>
+        <v>1400.96</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.270000</v>
+        <v>-253.27</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>12168.866470</v>
+        <v>12168.866470000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>3.380241</v>
+        <v>3.3802409999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>1425.400000</v>
+        <v>1425.4</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.770000</v>
+        <v>-313.77</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>12179.988769</v>
       </c>
       <c r="AZ6" s="1">
-        <v>3.383330</v>
+        <v>3.3833299999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1444.690000</v>
+        <v>1444.69</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.306000</v>
+        <v>-366.30599999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>12191.275759</v>
       </c>
       <c r="BE6" s="1">
-        <v>3.386465</v>
+        <v>3.3864649999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1529.630000</v>
+        <v>1529.63</v>
       </c>
       <c r="BG6" s="1">
-        <v>-616.825000</v>
+        <v>-616.82500000000005</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>12202.070154</v>
+        <v>12202.070153999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>3.389464</v>
+        <v>3.3894639999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1683.450000</v>
+        <v>1683.45</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1066.740000</v>
+        <v>-1066.74</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>12212.522846</v>
       </c>
       <c r="BO6" s="1">
-        <v>3.392367</v>
+        <v>3.3923670000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1977.600000</v>
+        <v>1977.6</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1848.210000</v>
+        <v>-1848.21</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>12223.786035</v>
+        <v>12223.786034999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>3.395496</v>
+        <v>3.3954960000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2364.030000</v>
+        <v>2364.0300000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2751.720000</v>
+        <v>-2751.72</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>12234.455967</v>
       </c>
       <c r="BY6" s="1">
-        <v>3.398460</v>
+        <v>3.39846</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2853.370000</v>
+        <v>2853.37</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3739.650000</v>
+        <v>-3739.65</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>12245.805393</v>
+        <v>12245.805393000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>3.401613</v>
+        <v>3.4016130000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>4280.830000</v>
+        <v>4280.83</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6129.900000</v>
+        <v>-6129.9</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>12074.219876</v>
+        <v>12074.219875999999</v>
       </c>
       <c r="B7" s="1">
-        <v>3.353950</v>
+        <v>3.3539500000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>1243.240000</v>
+        <v>1243.24</v>
       </c>
       <c r="D7" s="1">
-        <v>-305.990000</v>
+        <v>-305.99</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>12084.621512</v>
       </c>
       <c r="G7" s="1">
-        <v>3.356839</v>
+        <v>3.3568389999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1268.620000</v>
+        <v>1268.6199999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-264.214000</v>
+        <v>-264.214</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>12095.075192</v>
       </c>
       <c r="L7" s="1">
-        <v>3.359743</v>
+        <v>3.3597429999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1304.150000</v>
+        <v>1304.1500000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-202.293000</v>
+        <v>-202.29300000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>12105.571498</v>
+        <v>12105.571497999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.362659</v>
+        <v>3.3626589999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>1315.990000</v>
+        <v>1315.99</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.174000</v>
+        <v>-184.17400000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>12116.085227</v>
       </c>
       <c r="V7" s="1">
-        <v>3.365579</v>
+        <v>3.3655789999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1329.020000</v>
+        <v>1329.02</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.735000</v>
+        <v>-170.73500000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>12126.625678</v>
       </c>
       <c r="AA7" s="1">
-        <v>3.368507</v>
+        <v>3.3685070000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1346.060000</v>
+        <v>1346.06</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.575000</v>
+        <v>-168.57499999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>12137.153760</v>
+        <v>12137.153759999999</v>
       </c>
       <c r="AF7" s="1">
         <v>3.371432</v>
       </c>
       <c r="AG7" s="1">
-        <v>1358.920000</v>
+        <v>1358.92</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.713000</v>
+        <v>-178.71299999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>12147.626292</v>
+        <v>12147.626292000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>3.374341</v>
+        <v>3.3743409999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1379.390000</v>
+        <v>1379.39</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.016000</v>
+        <v>-209.01599999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>12158.265972</v>
+        <v>12158.265971999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>3.377296</v>
+        <v>3.3772959999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1400.970000</v>
+        <v>1400.97</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.283000</v>
+        <v>-253.28299999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>12169.282118</v>
+        <v>12169.282117999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.380356</v>
+        <v>3.3803559999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1425.400000</v>
+        <v>1425.4</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.788000</v>
+        <v>-313.78800000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>12180.273000</v>
+        <v>12180.272999999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.383409</v>
+        <v>3.3834089999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1444.680000</v>
+        <v>1444.68</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.285000</v>
+        <v>-366.28500000000003</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>12191.653672</v>
       </c>
       <c r="BE7" s="1">
-        <v>3.386570</v>
+        <v>3.3865699999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1529.640000</v>
+        <v>1529.64</v>
       </c>
       <c r="BG7" s="1">
-        <v>-616.853000</v>
+        <v>-616.85299999999995</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>12202.461530</v>
+        <v>12202.46153</v>
       </c>
       <c r="BJ7" s="1">
-        <v>3.389573</v>
+        <v>3.3895729999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1683.360000</v>
+        <v>1683.36</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1066.730000</v>
+        <v>-1066.73</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>12212.945932</v>
+        <v>12212.945932000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>3.392485</v>
+        <v>3.3924850000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1977.450000</v>
+        <v>1977.45</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1847.970000</v>
+        <v>-1847.97</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>12224.216557</v>
@@ -1976,437 +2392,437 @@
         <v>3.395616</v>
       </c>
       <c r="BU7" s="1">
-        <v>2363.990000</v>
+        <v>2363.9899999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2751.500000</v>
+        <v>-2751.5</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>12234.890463</v>
       </c>
       <c r="BY7" s="1">
-        <v>3.398581</v>
+        <v>3.3985810000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2853.620000</v>
+        <v>2853.62</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3739.760000</v>
+        <v>-3739.76</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>12246.325704</v>
+        <v>12246.325704000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>3.401757</v>
+        <v>3.4017569999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4297.110000</v>
+        <v>4297.1099999999997</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6133.920000</v>
+        <v>-6133.92</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>12074.642467</v>
       </c>
       <c r="B8" s="1">
-        <v>3.354067</v>
+        <v>3.3540670000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1243.210000</v>
+        <v>1243.21</v>
       </c>
       <c r="D8" s="1">
-        <v>-305.836000</v>
+        <v>-305.83600000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>12085.039142</v>
       </c>
       <c r="G8" s="1">
-        <v>3.356955</v>
+        <v>3.3569550000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1268.810000</v>
+        <v>1268.81</v>
       </c>
       <c r="I8" s="1">
-        <v>-264.246000</v>
+        <v>-264.24599999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>12095.490808</v>
       </c>
       <c r="L8" s="1">
-        <v>3.359859</v>
+        <v>3.3598590000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>1304.410000</v>
+        <v>1304.4100000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.049000</v>
+        <v>-202.04900000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>12105.986154</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.362774</v>
+        <v>3.3627739999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1315.910000</v>
+        <v>1315.91</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.163000</v>
+        <v>-184.16300000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>12116.490923</v>
+        <v>12116.490922999999</v>
       </c>
       <c r="V8" s="1">
-        <v>3.365692</v>
+        <v>3.3656920000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1328.930000</v>
+        <v>1328.93</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.603000</v>
+        <v>-170.60300000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>12126.912397</v>
       </c>
       <c r="AA8" s="1">
-        <v>3.368587</v>
+        <v>3.3685870000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1345.820000</v>
+        <v>1345.82</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.763000</v>
+        <v>-168.76300000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>12137.442463</v>
+        <v>12137.442462999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>3.371512</v>
+        <v>3.3715120000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1358.850000</v>
+        <v>1358.85</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.717000</v>
+        <v>-178.71700000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>12147.920449</v>
+        <v>12147.920448999999</v>
       </c>
       <c r="AK8" s="1">
         <v>3.374422</v>
       </c>
       <c r="AL8" s="1">
-        <v>1379.410000</v>
+        <v>1379.41</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.975000</v>
+        <v>-208.97499999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>12158.574484</v>
+        <v>12158.574484000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>3.377382</v>
+        <v>3.3773819999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1401.000000</v>
+        <v>1401</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.255000</v>
+        <v>-253.255</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>12169.596582</v>
       </c>
       <c r="AU8" s="1">
-        <v>3.380443</v>
+        <v>3.3804430000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1425.420000</v>
+        <v>1425.42</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.782000</v>
+        <v>-313.78199999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>12180.631575</v>
+        <v>12180.631574999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>3.383509</v>
+        <v>3.3835090000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1444.680000</v>
+        <v>1444.68</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.299000</v>
+        <v>-366.29899999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>12192.015753</v>
       </c>
       <c r="BE8" s="1">
-        <v>3.386671</v>
+        <v>3.3866710000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1529.630000</v>
+        <v>1529.63</v>
       </c>
       <c r="BG8" s="1">
-        <v>-616.792000</v>
+        <v>-616.79200000000003</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>12202.835481</v>
       </c>
       <c r="BJ8" s="1">
-        <v>3.389677</v>
+        <v>3.3896769999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1683.450000</v>
+        <v>1683.45</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1066.720000</v>
+        <v>-1066.72</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>12213.759867</v>
+        <v>12213.759867000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>3.392711</v>
+        <v>3.3927109999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1977.540000</v>
+        <v>1977.54</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1848.140000</v>
+        <v>-1848.14</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>12224.614812</v>
       </c>
       <c r="BT8" s="1">
-        <v>3.395726</v>
+        <v>3.3957259999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>2364.000000</v>
+        <v>2364</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2750.890000</v>
+        <v>-2750.89</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>12235.296158</v>
+        <v>12235.296157999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>3.398693</v>
+        <v>3.3986930000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2853.450000</v>
+        <v>2853.45</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3739.730000</v>
+        <v>-3739.73</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>12246.843519</v>
       </c>
       <c r="CD8" s="1">
-        <v>3.401901</v>
+        <v>3.4019010000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4301.020000</v>
+        <v>4301.0200000000004</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6118.760000</v>
+        <v>-6118.76</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>12074.922712</v>
       </c>
       <c r="B9" s="1">
-        <v>3.354145</v>
+        <v>3.3541449999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1243.220000</v>
+        <v>1243.22</v>
       </c>
       <c r="D9" s="1">
-        <v>-305.601000</v>
+        <v>-305.601</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>12085.314912</v>
       </c>
       <c r="G9" s="1">
-        <v>3.357032</v>
+        <v>3.3570319999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.410000</v>
+        <v>1269.4100000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-263.736000</v>
+        <v>-263.73599999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>12095.770583</v>
       </c>
       <c r="L9" s="1">
-        <v>3.359936</v>
+        <v>3.3599359999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>1303.800000</v>
+        <v>1303.8</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.253000</v>
+        <v>-202.25299999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>12106.273833</v>
+        <v>12106.273832999999</v>
       </c>
       <c r="Q9" s="1">
         <v>3.362854</v>
       </c>
       <c r="R9" s="1">
-        <v>1315.890000</v>
+        <v>1315.89</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.106000</v>
+        <v>-184.10599999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>12116.780630</v>
+        <v>12116.780629999999</v>
       </c>
       <c r="V9" s="1">
-        <v>3.365772</v>
+        <v>3.3657720000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>1328.950000</v>
+        <v>1328.95</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.769000</v>
+        <v>-170.76900000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>12127.263069</v>
+        <v>12127.263069000001</v>
       </c>
       <c r="AA9" s="1">
         <v>3.368684</v>
       </c>
       <c r="AB9" s="1">
-        <v>1346.070000</v>
+        <v>1346.07</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.689000</v>
+        <v>-168.68899999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>12137.787153</v>
+        <v>12137.787152999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>3.371608</v>
+        <v>3.3716080000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>1358.920000</v>
+        <v>1358.92</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.708000</v>
+        <v>-178.708</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>12148.270593</v>
+        <v>12148.270592999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>3.374520</v>
+        <v>3.37452</v>
       </c>
       <c r="AL9" s="1">
-        <v>1379.380000</v>
+        <v>1379.38</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.002000</v>
+        <v>-209.00200000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>12158.934083</v>
       </c>
       <c r="AP9" s="1">
-        <v>3.377482</v>
+        <v>3.3774820000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1400.970000</v>
+        <v>1400.97</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.288000</v>
+        <v>-253.28800000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>12169.960149</v>
@@ -2415,43 +2831,43 @@
         <v>3.380544</v>
       </c>
       <c r="AV9" s="1">
-        <v>1425.440000</v>
+        <v>1425.44</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.767000</v>
+        <v>-313.767</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>12180.989190</v>
+        <v>12180.98919</v>
       </c>
       <c r="AZ9" s="1">
-        <v>3.383608</v>
+        <v>3.3836080000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1444.680000</v>
+        <v>1444.68</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.305000</v>
+        <v>-366.30500000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>12192.746869</v>
+        <v>12192.746869000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>3.386874</v>
+        <v>3.3868740000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1529.630000</v>
+        <v>1529.63</v>
       </c>
       <c r="BG9" s="1">
-        <v>-616.847000</v>
+        <v>-616.84699999999998</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>12203.585433</v>
@@ -2460,28 +2876,28 @@
         <v>3.389885</v>
       </c>
       <c r="BK9" s="1">
-        <v>1683.370000</v>
+        <v>1683.37</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1066.680000</v>
+        <v>-1066.68</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>12214.175049</v>
+        <v>12214.175048999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>3.392826</v>
+        <v>3.3928259999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1977.520000</v>
+        <v>1977.52</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1847.880000</v>
+        <v>-1847.88</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>12225.052285</v>
@@ -2490,105 +2906,105 @@
         <v>3.395848</v>
       </c>
       <c r="BU9" s="1">
-        <v>2364.330000</v>
+        <v>2364.33</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2750.290000</v>
+        <v>-2750.29</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>12235.750990</v>
+        <v>12235.75099</v>
       </c>
       <c r="BY9" s="1">
-        <v>3.398820</v>
+        <v>3.3988200000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2854.000000</v>
+        <v>2854</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3738.830000</v>
+        <v>-3738.83</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>12247.675807</v>
       </c>
       <c r="CD9" s="1">
-        <v>3.402132</v>
+        <v>3.4021319999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4286.520000</v>
+        <v>4286.5200000000004</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6116.180000</v>
+        <v>-6116.18</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>12075.263954</v>
       </c>
       <c r="B10" s="1">
-        <v>3.354240</v>
+        <v>3.3542399999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1243.020000</v>
+        <v>1243.02</v>
       </c>
       <c r="D10" s="1">
-        <v>-305.815000</v>
+        <v>-305.815</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>12085.661620</v>
+        <v>12085.661620000001</v>
       </c>
       <c r="G10" s="1">
-        <v>3.357128</v>
+        <v>3.3571279999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1268.380000</v>
+        <v>1268.3800000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-264.741000</v>
+        <v>-264.74099999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>12096.115304</v>
+        <v>12096.115304000001</v>
       </c>
       <c r="L10" s="1">
-        <v>3.360032</v>
+        <v>3.3600319999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1304.360000</v>
+        <v>1304.3599999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.010000</v>
+        <v>-202.01</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>12106.625992</v>
+        <v>12106.625991999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.362952</v>
+        <v>3.3629519999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1315.990000</v>
+        <v>1315.99</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.060000</v>
+        <v>-184.06</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>12117.127326</v>
@@ -2597,225 +3013,225 @@
         <v>3.365869</v>
       </c>
       <c r="W10" s="1">
-        <v>1328.890000</v>
+        <v>1328.89</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.689000</v>
+        <v>-170.68899999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>12127.611261</v>
       </c>
       <c r="AA10" s="1">
-        <v>3.368781</v>
+        <v>3.3687809999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>1346.130000</v>
+        <v>1346.13</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.841000</v>
+        <v>-168.84100000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>12138.130420</v>
+        <v>12138.13042</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.371703</v>
+        <v>3.3717030000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1358.870000</v>
+        <v>1358.87</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.722000</v>
+        <v>-178.72200000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>12148.618289</v>
       </c>
       <c r="AK10" s="1">
-        <v>3.374616</v>
+        <v>3.3746160000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1379.410000</v>
+        <v>1379.41</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.015000</v>
+        <v>-209.01499999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>12159.293219</v>
+        <v>12159.293218999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>3.377581</v>
+        <v>3.3775810000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1400.940000</v>
+        <v>1400.94</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.268000</v>
+        <v>-253.268</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>12170.325700</v>
+        <v>12170.325699999999</v>
       </c>
       <c r="AU10" s="1">
         <v>3.380646</v>
       </c>
       <c r="AV10" s="1">
-        <v>1425.410000</v>
+        <v>1425.41</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.761000</v>
+        <v>-313.76100000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>12181.708885</v>
       </c>
       <c r="AZ10" s="1">
-        <v>3.383808</v>
+        <v>3.3838080000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1444.690000</v>
+        <v>1444.69</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.269000</v>
+        <v>-366.26900000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>12193.125798</v>
+        <v>12193.125797999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>3.386979</v>
+        <v>3.3869790000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1529.640000</v>
+        <v>1529.64</v>
       </c>
       <c r="BG10" s="1">
-        <v>-616.848000</v>
+        <v>-616.84799999999996</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>12203.961927</v>
       </c>
       <c r="BJ10" s="1">
-        <v>3.389989</v>
+        <v>3.3899889999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1683.440000</v>
+        <v>1683.44</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1066.700000</v>
+        <v>-1066.7</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>12214.570330</v>
+        <v>12214.57033</v>
       </c>
       <c r="BO10" s="1">
-        <v>3.392936</v>
+        <v>3.3929360000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1977.550000</v>
+        <v>1977.55</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1848.080000</v>
+        <v>-1848.08</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>12225.788843</v>
       </c>
       <c r="BT10" s="1">
-        <v>3.396052</v>
+        <v>3.3960520000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2364.310000</v>
+        <v>2364.31</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2750.070000</v>
+        <v>-2750.07</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>12236.474653</v>
+        <v>12236.474652999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.399021</v>
+        <v>3.3990209999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2853.500000</v>
+        <v>2853.5</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3738.760000</v>
+        <v>-3738.76</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>12247.880158</v>
       </c>
       <c r="CD10" s="1">
-        <v>3.402189</v>
+        <v>3.4021889999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4285.680000</v>
+        <v>4285.68</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6130.050000</v>
+        <v>-6130.05</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>12075.605697</v>
+        <v>12075.605697000001</v>
       </c>
       <c r="B11" s="1">
-        <v>3.354335</v>
+        <v>3.3543349999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1243.180000</v>
+        <v>1243.18</v>
       </c>
       <c r="D11" s="1">
-        <v>-305.695000</v>
+        <v>-305.69499999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>12085.998868</v>
+        <v>12085.998868000001</v>
       </c>
       <c r="G11" s="1">
-        <v>3.357222</v>
+        <v>3.3572220000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1268.340000</v>
+        <v>1268.3399999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-264.041000</v>
+        <v>-264.041</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>12096.460497</v>
@@ -2824,103 +3240,103 @@
         <v>3.360128</v>
       </c>
       <c r="M11" s="1">
-        <v>1304.230000</v>
+        <v>1304.23</v>
       </c>
       <c r="N11" s="1">
-        <v>-202.036000</v>
+        <v>-202.036</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>12106.970223</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.363047</v>
+        <v>3.3630469999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1316.030000</v>
+        <v>1316.03</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.119000</v>
+        <v>-184.119</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>12117.538176</v>
       </c>
       <c r="V11" s="1">
-        <v>3.365983</v>
+        <v>3.3659829999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1328.950000</v>
+        <v>1328.95</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.702000</v>
+        <v>-170.702</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>12128.308604</v>
       </c>
       <c r="AA11" s="1">
-        <v>3.368975</v>
+        <v>3.3689749999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>1346.170000</v>
+        <v>1346.17</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.842000</v>
+        <v>-168.84200000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>12138.817342</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.371894</v>
+        <v>3.3718940000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>1358.940000</v>
+        <v>1358.94</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.721000</v>
+        <v>-178.721</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>12149.315664</v>
       </c>
       <c r="AK11" s="1">
-        <v>3.374810</v>
+        <v>3.3748100000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1379.420000</v>
+        <v>1379.42</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.009000</v>
+        <v>-209.00899999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>12160.021811</v>
+        <v>12160.021811000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>3.377784</v>
+        <v>3.3777840000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1400.960000</v>
+        <v>1400.96</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.226000</v>
+        <v>-253.226</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>12171.054853</v>
@@ -2929,360 +3345,360 @@
         <v>3.380849</v>
       </c>
       <c r="AV11" s="1">
-        <v>1425.430000</v>
+        <v>1425.43</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.780000</v>
+        <v>-313.77999999999997</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>12182.066501</v>
+        <v>12182.066500999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>3.383907</v>
+        <v>3.3839070000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1444.700000</v>
+        <v>1444.7</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.319000</v>
+        <v>-366.31900000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>12193.486390</v>
+        <v>12193.48639</v>
       </c>
       <c r="BE11" s="1">
-        <v>3.387080</v>
+        <v>3.3870800000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1529.620000</v>
+        <v>1529.62</v>
       </c>
       <c r="BG11" s="1">
-        <v>-616.814000</v>
+        <v>-616.81399999999996</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>12204.339351</v>
+        <v>12204.339351000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>3.390094</v>
+        <v>3.3900939999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1683.390000</v>
+        <v>1683.39</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1066.670000</v>
+        <v>-1066.67</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>12215.304409</v>
       </c>
       <c r="BO11" s="1">
-        <v>3.393140</v>
+        <v>3.3931399999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1977.340000</v>
+        <v>1977.34</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1847.840000</v>
+        <v>-1847.84</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>12225.925739</v>
       </c>
       <c r="BT11" s="1">
-        <v>3.396090</v>
+        <v>3.3960900000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2364.510000</v>
+        <v>2364.5100000000002</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2749.710000</v>
+        <v>-2749.71</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>12236.615551</v>
+        <v>12236.615551000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>3.399060</v>
+        <v>3.39906</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2852.540000</v>
+        <v>2852.54</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3739.000000</v>
+        <v>-3739</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>12248.397981</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.402333</v>
+        <v>3.4023330000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4286.470000</v>
+        <v>4286.47</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6130.050000</v>
+        <v>-6130.05</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>12076.288689</v>
+        <v>12076.288689000001</v>
       </c>
       <c r="B12" s="1">
-        <v>3.354525</v>
+        <v>3.3545250000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>1242.770000</v>
+        <v>1242.77</v>
       </c>
       <c r="D12" s="1">
-        <v>-305.659000</v>
+        <v>-305.65899999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>12086.696777</v>
+        <v>12086.696776999999</v>
       </c>
       <c r="G12" s="1">
-        <v>3.357416</v>
+        <v>3.3574160000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>1268.950000</v>
+        <v>1268.95</v>
       </c>
       <c r="I12" s="1">
-        <v>-265.064000</v>
+        <v>-265.06400000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>12097.156565</v>
+        <v>12097.156564999999</v>
       </c>
       <c r="L12" s="1">
-        <v>3.360321</v>
+        <v>3.3603209999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1304.180000</v>
+        <v>1304.18</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.225000</v>
+        <v>-202.22499999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>12107.671559</v>
       </c>
       <c r="Q12" s="1">
-        <v>3.363242</v>
+        <v>3.3632420000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1315.970000</v>
+        <v>1315.97</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.186000</v>
+        <v>-184.18600000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>12118.161971</v>
       </c>
       <c r="V12" s="1">
-        <v>3.366156</v>
+        <v>3.3661560000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1328.920000</v>
+        <v>1328.92</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.669000</v>
+        <v>-170.66900000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>12128.658779</v>
+        <v>12128.658778999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.369072</v>
+        <v>3.3690720000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1345.990000</v>
+        <v>1345.99</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.862000</v>
+        <v>-168.86199999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>12139.158589</v>
+        <v>12139.158589000001</v>
       </c>
       <c r="AF12" s="1">
         <v>3.371988</v>
       </c>
       <c r="AG12" s="1">
-        <v>1358.890000</v>
+        <v>1358.89</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.722000</v>
+        <v>-178.72200000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>12149.664384</v>
       </c>
       <c r="AK12" s="1">
-        <v>3.374907</v>
+        <v>3.3749069999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1379.400000</v>
+        <v>1379.4</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.003000</v>
+        <v>-209.00299999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>12160.398273</v>
+        <v>12160.398273000001</v>
       </c>
       <c r="AP12" s="1">
         <v>3.377888</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1400.950000</v>
+        <v>1400.95</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.266000</v>
+        <v>-253.26599999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>12171.419379</v>
+        <v>12171.419379000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>3.380950</v>
+        <v>3.3809499999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1425.410000</v>
+        <v>1425.41</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.774000</v>
+        <v>-313.774</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>12182.425606</v>
+        <v>12182.425606000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>3.384007</v>
       </c>
       <c r="BA12" s="1">
-        <v>1444.710000</v>
+        <v>1444.71</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.294000</v>
+        <v>-366.29399999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>12194.158965</v>
+        <v>12194.158965000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.387266</v>
+        <v>3.3872659999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1529.620000</v>
+        <v>1529.62</v>
       </c>
       <c r="BG12" s="1">
-        <v>-616.861000</v>
+        <v>-616.86099999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>12205.023372</v>
       </c>
       <c r="BJ12" s="1">
-        <v>3.390284</v>
+        <v>3.3902839999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1683.350000</v>
+        <v>1683.35</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1066.630000</v>
+        <v>-1066.6300000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>12215.813801</v>
       </c>
       <c r="BO12" s="1">
-        <v>3.393282</v>
+        <v>3.3932820000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1977.420000</v>
+        <v>1977.42</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1847.970000</v>
+        <v>-1847.97</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>12226.336426</v>
       </c>
       <c r="BT12" s="1">
-        <v>3.396205</v>
+        <v>3.3962050000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2364.500000</v>
+        <v>2364.5</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2749.120000</v>
+        <v>-2749.12</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>12237.037644</v>
       </c>
       <c r="BY12" s="1">
-        <v>3.399177</v>
+        <v>3.3991769999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2853.370000</v>
+        <v>2853.37</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3739.150000</v>
+        <v>-3739.15</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>12248.947052</v>
@@ -3291,45 +3707,45 @@
         <v>3.402485</v>
       </c>
       <c r="CE12" s="1">
-        <v>4280.360000</v>
+        <v>4280.3599999999997</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6118.090000</v>
+        <v>-6118.09</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>12076.631951</v>
+        <v>12076.631950999999</v>
       </c>
       <c r="B13" s="1">
-        <v>3.354620</v>
+        <v>3.3546200000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1242.940000</v>
+        <v>1242.94</v>
       </c>
       <c r="D13" s="1">
-        <v>-305.688000</v>
+        <v>-305.68799999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>12087.039972</v>
       </c>
       <c r="G13" s="1">
-        <v>3.357511</v>
+        <v>3.3575110000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1268.950000</v>
+        <v>1268.95</v>
       </c>
       <c r="I13" s="1">
-        <v>-264.384000</v>
+        <v>-264.38400000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>12097.500628</v>
@@ -3338,148 +3754,148 @@
         <v>3.360417</v>
       </c>
       <c r="M13" s="1">
-        <v>1304.340000</v>
+        <v>1304.3399999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-201.785000</v>
+        <v>-201.785</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>12108.019288</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.363339</v>
+        <v>3.3633389999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1315.940000</v>
+        <v>1315.94</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.134000</v>
+        <v>-184.13399999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>12118.508683</v>
       </c>
       <c r="V13" s="1">
-        <v>3.366252</v>
+        <v>3.3662519999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>1328.970000</v>
+        <v>1328.97</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.662000</v>
+        <v>-170.66200000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>12129.003003</v>
       </c>
       <c r="AA13" s="1">
-        <v>3.369168</v>
+        <v>3.3691680000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>1345.990000</v>
+        <v>1345.99</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.795000</v>
+        <v>-168.79499999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>12139.503310</v>
+        <v>12139.50331</v>
       </c>
       <c r="AF13" s="1">
-        <v>3.372084</v>
+        <v>3.3720840000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1358.870000</v>
+        <v>1358.87</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.714000</v>
+        <v>-178.714</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>12150.014560</v>
+        <v>12150.01456</v>
       </c>
       <c r="AK13" s="1">
-        <v>3.375004</v>
+        <v>3.3750040000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1379.400000</v>
+        <v>1379.4</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.001000</v>
+        <v>-209.001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>12160.757873</v>
       </c>
       <c r="AP13" s="1">
-        <v>3.377988</v>
+        <v>3.3779880000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1400.960000</v>
+        <v>1400.96</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.249000</v>
+        <v>-253.249</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>12171.785923</v>
+        <v>12171.785922999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>3.381052</v>
+        <v>3.3810519999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1425.430000</v>
+        <v>1425.43</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.770000</v>
+        <v>-313.77</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>12183.094745</v>
       </c>
       <c r="AZ13" s="1">
-        <v>3.384193</v>
+        <v>3.3841929999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1444.690000</v>
+        <v>1444.69</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.298000</v>
+        <v>-366.298</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>12194.602916</v>
       </c>
       <c r="BE13" s="1">
-        <v>3.387390</v>
+        <v>3.3873899999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1529.650000</v>
+        <v>1529.65</v>
       </c>
       <c r="BG13" s="1">
-        <v>-616.801000</v>
+        <v>-616.80100000000004</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>12205.131958</v>
@@ -3488,28 +3904,28 @@
         <v>3.390314</v>
       </c>
       <c r="BK13" s="1">
-        <v>1683.360000</v>
+        <v>1683.36</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1066.600000</v>
+        <v>-1066.5999999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>12216.234903</v>
       </c>
       <c r="BO13" s="1">
-        <v>3.393399</v>
+        <v>3.3933990000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1977.460000</v>
+        <v>1977.46</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1847.760000</v>
+        <v>-1847.76</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>12226.769435</v>
@@ -3518,13 +3934,13 @@
         <v>3.396325</v>
       </c>
       <c r="BU13" s="1">
-        <v>2365.070000</v>
+        <v>2365.0700000000002</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2749.270000</v>
+        <v>-2749.27</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>12237.461691</v>
@@ -3533,75 +3949,75 @@
         <v>3.399295</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2853.300000</v>
+        <v>2853.3</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3738.760000</v>
+        <v>-3738.76</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>12249.476370</v>
+        <v>12249.47637</v>
       </c>
       <c r="CD13" s="1">
-        <v>3.402632</v>
+        <v>3.4026320000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4287.390000</v>
+        <v>4287.3900000000003</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6131.700000</v>
+        <v>-6131.7</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>12076.974160</v>
+        <v>12076.97416</v>
       </c>
       <c r="B14" s="1">
-        <v>3.354715</v>
+        <v>3.3547150000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1243.150000</v>
+        <v>1243.1500000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-305.776000</v>
+        <v>-305.77600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>12087.383236</v>
       </c>
       <c r="G14" s="1">
-        <v>3.357606</v>
+        <v>3.3576060000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1269.080000</v>
+        <v>1269.08</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.093000</v>
+        <v>-264.09300000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>12097.847796</v>
       </c>
       <c r="L14" s="1">
-        <v>3.360513</v>
+        <v>3.3605130000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1304.320000</v>
+        <v>1304.32</v>
       </c>
       <c r="N14" s="1">
-        <v>-202.347000</v>
+        <v>-202.34700000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>12108.367483</v>
@@ -3610,285 +4026,285 @@
         <v>3.363435</v>
       </c>
       <c r="R14" s="1">
-        <v>1315.840000</v>
+        <v>1315.84</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.089000</v>
+        <v>-184.089</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>12119.163865</v>
       </c>
       <c r="V14" s="1">
-        <v>3.366434</v>
+        <v>3.3664339999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1329.070000</v>
+        <v>1329.07</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.701000</v>
+        <v>-170.70099999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>12129.658250</v>
+        <v>12129.65825</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.369350</v>
+        <v>3.3693499999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>1345.860000</v>
+        <v>1345.86</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.729000</v>
+        <v>-168.72900000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>12140.143148</v>
+        <v>12140.143147999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.372262</v>
+        <v>3.3722620000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1358.870000</v>
+        <v>1358.87</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.672000</v>
+        <v>-178.672</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>12150.671230</v>
+        <v>12150.67123</v>
       </c>
       <c r="AK14" s="1">
-        <v>3.375186</v>
+        <v>3.3751859999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1379.420000</v>
+        <v>1379.42</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.985000</v>
+        <v>-208.98500000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>12161.429953</v>
+        <v>12161.429953000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>3.378175</v>
+        <v>3.3781750000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1400.970000</v>
+        <v>1400.97</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.237000</v>
+        <v>-253.23699999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>12172.451553</v>
+        <v>12172.451553000001</v>
       </c>
       <c r="AU14" s="1">
         <v>3.381237</v>
       </c>
       <c r="AV14" s="1">
-        <v>1425.420000</v>
+        <v>1425.42</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.761000</v>
+        <v>-313.76100000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>12183.501464</v>
+        <v>12183.501464000001</v>
       </c>
       <c r="AZ14" s="1">
         <v>3.384306</v>
       </c>
       <c r="BA14" s="1">
-        <v>1444.690000</v>
+        <v>1444.69</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.238000</v>
+        <v>-366.238</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>12194.961493</v>
+        <v>12194.961493000001</v>
       </c>
       <c r="BE14" s="1">
         <v>3.387489</v>
       </c>
       <c r="BF14" s="1">
-        <v>1529.650000</v>
+        <v>1529.65</v>
       </c>
       <c r="BG14" s="1">
-        <v>-616.779000</v>
+        <v>-616.779</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>12205.499990</v>
+        <v>12205.49999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>3.390417</v>
+        <v>3.3904169999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1683.370000</v>
+        <v>1683.37</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1066.720000</v>
+        <v>-1066.72</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>12216.629224</v>
       </c>
       <c r="BO14" s="1">
-        <v>3.393508</v>
+        <v>3.3935080000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1977.560000</v>
+        <v>1977.56</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1847.760000</v>
+        <v>-1847.76</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>12227.204425</v>
       </c>
       <c r="BT14" s="1">
-        <v>3.396446</v>
+        <v>3.3964460000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2365.080000</v>
+        <v>2365.08</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2748.850000</v>
+        <v>-2748.85</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>12237.891259</v>
       </c>
       <c r="BY14" s="1">
-        <v>3.399414</v>
+        <v>3.3994140000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2853.070000</v>
+        <v>2853.07</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3738.760000</v>
+        <v>-3738.76</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>12249.992988</v>
       </c>
       <c r="CD14" s="1">
-        <v>3.402776</v>
+        <v>3.4027759999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>4300.000000</v>
+        <v>4300</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6124.470000</v>
+        <v>-6124.47</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>12077.621472</v>
+        <v>12077.621472000001</v>
       </c>
       <c r="B15" s="1">
         <v>3.354895</v>
       </c>
       <c r="C15" s="1">
-        <v>1243.040000</v>
+        <v>1243.04</v>
       </c>
       <c r="D15" s="1">
-        <v>-305.722000</v>
+        <v>-305.72199999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>12088.028002</v>
+        <v>12088.028001999999</v>
       </c>
       <c r="G15" s="1">
-        <v>3.357786</v>
+        <v>3.3577859999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1268.560000</v>
+        <v>1268.56</v>
       </c>
       <c r="I15" s="1">
-        <v>-264.183000</v>
+        <v>-264.18299999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>12098.501555</v>
+        <v>12098.501555000001</v>
       </c>
       <c r="L15" s="1">
-        <v>3.360695</v>
+        <v>3.3606950000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>1304.530000</v>
+        <v>1304.53</v>
       </c>
       <c r="N15" s="1">
-        <v>-202.487000</v>
+        <v>-202.48699999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>12109.014230</v>
+        <v>12109.014230000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>3.363615</v>
+        <v>3.3636149999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1315.940000</v>
+        <v>1315.94</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.058000</v>
+        <v>-184.05799999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>12119.544792</v>
+        <v>12119.544792000001</v>
       </c>
       <c r="V15" s="1">
-        <v>3.366540</v>
+        <v>3.3665400000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1328.880000</v>
+        <v>1328.88</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.718000</v>
+        <v>-170.71799999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>12130.051049</v>
@@ -3897,43 +4313,43 @@
         <v>3.369459</v>
       </c>
       <c r="AB15" s="1">
-        <v>1346.140000</v>
+        <v>1346.14</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.816000</v>
+        <v>-168.816</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>12140.535980</v>
+        <v>12140.535980000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.372371</v>
+        <v>3.3723709999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1358.880000</v>
+        <v>1358.88</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.753000</v>
+        <v>-178.75299999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>12151.060591</v>
+        <v>12151.060590999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>3.375295</v>
+        <v>3.3752949999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1379.400000</v>
+        <v>1379.4</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.995000</v>
+        <v>-208.995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>12161.837167</v>
@@ -3942,874 +4358,874 @@
         <v>3.378288</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1400.990000</v>
+        <v>1400.99</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.233000</v>
+        <v>-253.233</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>12172.878150</v>
+        <v>12172.87815</v>
       </c>
       <c r="AU15" s="1">
-        <v>3.381355</v>
+        <v>3.3813550000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1425.400000</v>
+        <v>1425.4</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.765000</v>
+        <v>-313.76499999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>12183.891815</v>
+        <v>12183.891815000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>3.384414</v>
       </c>
       <c r="BA15" s="1">
-        <v>1444.700000</v>
+        <v>1444.7</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.292000</v>
+        <v>-366.29199999999997</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>12195.324067</v>
       </c>
       <c r="BE15" s="1">
-        <v>3.387590</v>
+        <v>3.3875899999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1529.610000</v>
+        <v>1529.61</v>
       </c>
       <c r="BG15" s="1">
-        <v>-616.754000</v>
+        <v>-616.75400000000002</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>12205.874001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>3.390521</v>
+        <v>3.3905210000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1683.400000</v>
+        <v>1683.4</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1066.620000</v>
+        <v>-1066.6199999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>12217.050822</v>
+        <v>12217.050821999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>3.393625</v>
+        <v>3.3936250000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1977.440000</v>
+        <v>1977.44</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1847.620000</v>
+        <v>-1847.62</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>12227.600729</v>
       </c>
       <c r="BT15" s="1">
-        <v>3.396556</v>
+        <v>3.3965559999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2365.370000</v>
+        <v>2365.37</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2748.760000</v>
+        <v>-2748.76</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>12238.326726</v>
+        <v>12238.326725999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>3.399535</v>
+        <v>3.3995350000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2852.810000</v>
+        <v>2852.81</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3739.220000</v>
+        <v>-3739.22</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>12250.512426</v>
+        <v>12250.512425999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>3.402920</v>
+        <v>3.4029199999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4291.880000</v>
+        <v>4291.88</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6112.460000</v>
+        <v>-6112.46</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>12077.998432</v>
       </c>
       <c r="B16" s="1">
-        <v>3.355000</v>
+        <v>3.355</v>
       </c>
       <c r="C16" s="1">
-        <v>1242.860000</v>
+        <v>1242.8599999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-305.682000</v>
+        <v>-305.68200000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>12088.420866</v>
       </c>
       <c r="G16" s="1">
-        <v>3.357895</v>
+        <v>3.3578950000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1268.490000</v>
+        <v>1268.49</v>
       </c>
       <c r="I16" s="1">
-        <v>-263.826000</v>
+        <v>-263.82600000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>12098.882483</v>
+        <v>12098.882482999999</v>
       </c>
       <c r="L16" s="1">
-        <v>3.360801</v>
+        <v>3.3608009999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1304.520000</v>
+        <v>1304.52</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.195000</v>
+        <v>-202.19499999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>12109.412519</v>
       </c>
       <c r="Q16" s="1">
-        <v>3.363726</v>
+        <v>3.3637260000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>1316.010000</v>
+        <v>1316.01</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.079000</v>
+        <v>-184.07900000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>12119.891991</v>
       </c>
       <c r="V16" s="1">
-        <v>3.366637</v>
+        <v>3.3666369999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1328.970000</v>
+        <v>1328.97</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.713000</v>
+        <v>-170.71299999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>12130.399241</v>
+        <v>12130.399240999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.369555</v>
+        <v>3.3695550000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1345.970000</v>
+        <v>1345.97</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.906000</v>
+        <v>-168.90600000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>12140.877749</v>
+        <v>12140.877748999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>3.372466</v>
+        <v>3.3724660000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>1358.880000</v>
+        <v>1358.88</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.693000</v>
+        <v>-178.69300000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>12151.407822</v>
+        <v>12151.407821999999</v>
       </c>
       <c r="AK16" s="1">
         <v>3.375391</v>
       </c>
       <c r="AL16" s="1">
-        <v>1379.390000</v>
+        <v>1379.39</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.023000</v>
+        <v>-209.023</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>12162.220607</v>
+        <v>12162.220606999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>3.378395</v>
+        <v>3.3783949999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1400.960000</v>
+        <v>1400.96</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.251000</v>
+        <v>-253.251</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>12173.242674</v>
+        <v>12173.242673999999</v>
       </c>
       <c r="AU16" s="1">
         <v>3.381456</v>
       </c>
       <c r="AV16" s="1">
-        <v>1425.440000</v>
+        <v>1425.44</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.757000</v>
+        <v>-313.75700000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>12184.249890</v>
+        <v>12184.249889999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>3.384514</v>
+        <v>3.3845139999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1444.650000</v>
+        <v>1444.65</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.247000</v>
+        <v>-366.24700000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>12195.747167</v>
       </c>
       <c r="BE16" s="1">
-        <v>3.387708</v>
+        <v>3.3877079999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1529.650000</v>
+        <v>1529.65</v>
       </c>
       <c r="BG16" s="1">
-        <v>-616.791000</v>
+        <v>-616.79100000000005</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>12206.289124</v>
+        <v>12206.289124000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.390636</v>
+        <v>3.3906360000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1683.360000</v>
+        <v>1683.36</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1066.550000</v>
+        <v>-1066.55</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>12217.449639</v>
       </c>
       <c r="BO16" s="1">
-        <v>3.393736</v>
+        <v>3.3937360000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1977.440000</v>
+        <v>1977.44</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1847.760000</v>
+        <v>-1847.76</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>12228.017368</v>
+        <v>12228.017368000001</v>
       </c>
       <c r="BT16" s="1">
         <v>3.396671</v>
       </c>
       <c r="BU16" s="1">
-        <v>2365.810000</v>
+        <v>2365.81</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2748.640000</v>
+        <v>-2748.64</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>12238.740378</v>
       </c>
       <c r="BY16" s="1">
-        <v>3.399650</v>
+        <v>3.3996499999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2853.480000</v>
+        <v>2853.48</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3739.150000</v>
+        <v>-3739.15</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>12251.031281</v>
       </c>
       <c r="CD16" s="1">
-        <v>3.403064</v>
+        <v>3.4030640000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4280.080000</v>
+        <v>4280.08</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6121.260000</v>
+        <v>-6121.26</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>12078.342127</v>
       </c>
       <c r="B17" s="1">
-        <v>3.355095</v>
+        <v>3.3550949999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-305.819000</v>
+        <v>-305.81900000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>12088.763599</v>
       </c>
       <c r="G17" s="1">
-        <v>3.357990</v>
+        <v>3.35799</v>
       </c>
       <c r="H17" s="1">
-        <v>1268.530000</v>
+        <v>1268.53</v>
       </c>
       <c r="I17" s="1">
-        <v>-264.420000</v>
+        <v>-264.42</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>12099.227666</v>
+        <v>12099.227666000001</v>
       </c>
       <c r="L17" s="1">
         <v>3.360897</v>
       </c>
       <c r="M17" s="1">
-        <v>1304.520000</v>
+        <v>1304.52</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.820000</v>
+        <v>-201.82</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>12109.758228</v>
+        <v>12109.758228000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>3.363822</v>
+        <v>3.3638219999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1316.000000</v>
+        <v>1316</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.117000</v>
+        <v>-184.11699999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>12120.234726</v>
+        <v>12120.234726000001</v>
       </c>
       <c r="V17" s="1">
-        <v>3.366732</v>
+        <v>3.3667319999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1328.950000</v>
+        <v>1328.95</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.837000</v>
+        <v>-170.83699999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>12130.747962</v>
+        <v>12130.747961999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>3.369652</v>
+        <v>3.3696519999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1346.070000</v>
+        <v>1346.07</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.731000</v>
+        <v>-168.73099999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>12141.221949</v>
+        <v>12141.221949000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>3.372562</v>
+        <v>3.3725619999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>1358.940000</v>
+        <v>1358.94</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.713000</v>
+        <v>-178.71299999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>12151.757469</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.375488</v>
+        <v>3.3754879999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>1379.400000</v>
+        <v>1379.4</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.993000</v>
+        <v>-208.99299999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>12162.584143</v>
       </c>
       <c r="AP17" s="1">
-        <v>3.378496</v>
+        <v>3.3784960000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1400.960000</v>
+        <v>1400.96</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.244000</v>
+        <v>-253.244</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>12173.606736</v>
       </c>
       <c r="AU17" s="1">
-        <v>3.381557</v>
+        <v>3.3815569999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1425.400000</v>
+        <v>1425.4</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.783000</v>
+        <v>-313.78300000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>12184.668513</v>
+        <v>12184.668513000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3.384630</v>
+        <v>3.38463</v>
       </c>
       <c r="BA17" s="1">
-        <v>1444.680000</v>
+        <v>1444.68</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.331000</v>
+        <v>-366.33100000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>12196.050710</v>
+        <v>12196.05071</v>
       </c>
       <c r="BE17" s="1">
-        <v>3.387792</v>
+        <v>3.3877920000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1529.700000</v>
+        <v>1529.7</v>
       </c>
       <c r="BG17" s="1">
-        <v>-616.764000</v>
+        <v>-616.76400000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>12206.624917</v>
+        <v>12206.624916999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>3.390729</v>
+        <v>3.3907289999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1683.340000</v>
+        <v>1683.34</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1066.640000</v>
+        <v>-1066.6400000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>12217.865253</v>
       </c>
       <c r="BO17" s="1">
-        <v>3.393851</v>
+        <v>3.3938510000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1977.480000</v>
+        <v>1977.48</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1847.630000</v>
+        <v>-1847.63</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>12228.431064</v>
       </c>
       <c r="BT17" s="1">
-        <v>3.396786</v>
+        <v>3.3967860000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2366.040000</v>
+        <v>2366.04</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2748.830000</v>
+        <v>-2748.83</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>12239.170905</v>
+        <v>12239.170905000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>3.399770</v>
+        <v>3.3997700000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2853.500000</v>
+        <v>2853.5</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3739.170000</v>
+        <v>-3739.17</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>12251.550057</v>
       </c>
       <c r="CD17" s="1">
-        <v>3.403208</v>
+        <v>3.4032079999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>4291.120000</v>
+        <v>4291.12</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6134.160000</v>
+        <v>-6134.16</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>12078.683903</v>
+        <v>12078.683902999999</v>
       </c>
       <c r="B18" s="1">
-        <v>3.355190</v>
+        <v>3.3551899999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1243.080000</v>
+        <v>1243.08</v>
       </c>
       <c r="D18" s="1">
-        <v>-305.564000</v>
+        <v>-305.56400000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>12089.107159</v>
+        <v>12089.107158999999</v>
       </c>
       <c r="G18" s="1">
         <v>3.358085</v>
       </c>
       <c r="H18" s="1">
-        <v>1268.910000</v>
+        <v>1268.9100000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-263.879000</v>
+        <v>-263.87900000000002</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>12099.575858</v>
       </c>
       <c r="L18" s="1">
-        <v>3.360993</v>
+        <v>3.3609930000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1304.530000</v>
+        <v>1304.53</v>
       </c>
       <c r="N18" s="1">
-        <v>-201.666000</v>
+        <v>-201.666</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>12110.110421</v>
+        <v>12110.110420999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>3.363920</v>
+        <v>3.3639199999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>1315.960000</v>
+        <v>1315.96</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.141000</v>
+        <v>-184.14099999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>12120.642438</v>
+        <v>12120.642438000001</v>
       </c>
       <c r="V18" s="1">
-        <v>3.366845</v>
+        <v>3.3668450000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1329.090000</v>
+        <v>1329.09</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.653000</v>
+        <v>-170.65299999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>12131.157658</v>
       </c>
       <c r="AA18" s="1">
-        <v>3.369766</v>
+        <v>3.3697659999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1346.140000</v>
+        <v>1346.14</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.652000</v>
+        <v>-168.65199999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>12141.639591</v>
+        <v>12141.639590999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.372678</v>
+        <v>3.3726780000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1358.870000</v>
+        <v>1358.87</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.673000</v>
+        <v>-178.673</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>12152.168287</v>
       </c>
       <c r="AK18" s="1">
-        <v>3.375602</v>
+        <v>3.3756020000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1379.400000</v>
+        <v>1379.4</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.977000</v>
+        <v>-208.977</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>12163.002270</v>
+        <v>12163.002270000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>3.378612</v>
+        <v>3.3786119999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1400.940000</v>
+        <v>1400.94</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.276000</v>
+        <v>-253.27600000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>12174.020399</v>
+        <v>12174.020399000001</v>
       </c>
       <c r="AU18" s="1">
         <v>3.381672</v>
       </c>
       <c r="AV18" s="1">
-        <v>1425.420000</v>
+        <v>1425.42</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.745000</v>
+        <v>-313.745</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>12184.966114</v>
+        <v>12184.966114000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>3.384713</v>
+        <v>3.3847130000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1444.600000</v>
+        <v>1444.6</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.392000</v>
+        <v>-366.392</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>12196.408322</v>
+        <v>12196.408321999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>3.387891</v>
+        <v>3.3878910000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1529.650000</v>
+        <v>1529.65</v>
       </c>
       <c r="BG18" s="1">
-        <v>-616.745000</v>
+        <v>-616.745</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>12207.008820</v>
+        <v>12207.008819999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>3.390836</v>
+        <v>3.3908360000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1683.380000</v>
+        <v>1683.38</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1066.660000</v>
+        <v>-1066.6600000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>12218.262338</v>
       </c>
       <c r="BO18" s="1">
-        <v>3.393962</v>
+        <v>3.3939620000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1977.470000</v>
+        <v>1977.47</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1847.650000</v>
+        <v>-1847.65</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>12228.848663</v>
+        <v>12228.848663000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>3.396902</v>
+        <v>3.3969019999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2366.440000</v>
+        <v>2366.44</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2748.710000</v>
+        <v>-2748.71</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>12239.638137</v>
@@ -4818,105 +5234,105 @@
         <v>3.399899</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2853.290000</v>
+        <v>2853.29</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3738.080000</v>
+        <v>-3738.08</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>12252.066888</v>
+        <v>12252.066887999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>3.403352</v>
+        <v>3.4033519999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4282.210000</v>
+        <v>4282.21</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6129.960000</v>
+        <v>-6129.96</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>12079.101501</v>
+        <v>12079.101500999999</v>
       </c>
       <c r="B19" s="1">
-        <v>3.355306</v>
+        <v>3.3553060000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1243.330000</v>
+        <v>1243.33</v>
       </c>
       <c r="D19" s="1">
-        <v>-305.695000</v>
+        <v>-305.69499999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>12089.513519</v>
       </c>
       <c r="G19" s="1">
-        <v>3.358198</v>
+        <v>3.3581979999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1268.080000</v>
+        <v>1268.08</v>
       </c>
       <c r="I19" s="1">
-        <v>-264.579000</v>
+        <v>-264.57900000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>12099.985586</v>
+        <v>12099.985586000001</v>
       </c>
       <c r="L19" s="1">
-        <v>3.361107</v>
+        <v>3.3611070000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1304.050000</v>
+        <v>1304.05</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.372000</v>
+        <v>-202.37200000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>12110.518628</v>
       </c>
       <c r="Q19" s="1">
-        <v>3.364033</v>
+        <v>3.3640330000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1315.940000</v>
+        <v>1315.94</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.133000</v>
+        <v>-184.13300000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>12120.931110</v>
+        <v>12120.93111</v>
       </c>
       <c r="V19" s="1">
-        <v>3.366925</v>
+        <v>3.3669250000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>1328.980000</v>
+        <v>1328.98</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.681000</v>
+        <v>-170.68100000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>12131.450761</v>
@@ -4925,557 +5341,557 @@
         <v>3.369847</v>
       </c>
       <c r="AB19" s="1">
-        <v>1346.060000</v>
+        <v>1346.06</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.792000</v>
+        <v>-168.792</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>12141.931723</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.372759</v>
+        <v>3.3727589999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>1358.910000</v>
+        <v>1358.91</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.646000</v>
+        <v>-178.64599999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>12152.467740</v>
+        <v>12152.46774</v>
       </c>
       <c r="AK19" s="1">
-        <v>3.375685</v>
+        <v>3.3756849999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>1379.370000</v>
+        <v>1379.37</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.939000</v>
+        <v>-208.93899999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>12163.297885</v>
       </c>
       <c r="AP19" s="1">
-        <v>3.378694</v>
+        <v>3.3786939999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1400.970000</v>
+        <v>1400.97</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.257000</v>
+        <v>-253.25700000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>12174.335855</v>
+        <v>12174.335854999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>3.381760</v>
+        <v>3.3817599999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1425.430000</v>
+        <v>1425.43</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.738000</v>
+        <v>-313.738</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>12185.324757</v>
       </c>
       <c r="AZ19" s="1">
-        <v>3.384812</v>
+        <v>3.3848120000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1444.610000</v>
+        <v>1444.61</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.398000</v>
+        <v>-366.39800000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>12196.769442</v>
+        <v>12196.769442000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>3.387992</v>
+        <v>3.3879920000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1529.570000</v>
+        <v>1529.57</v>
       </c>
       <c r="BG19" s="1">
-        <v>-616.829000</v>
+        <v>-616.82899999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>12207.534083</v>
       </c>
       <c r="BJ19" s="1">
-        <v>3.390982</v>
+        <v>3.3909820000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1683.400000</v>
+        <v>1683.4</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1066.520000</v>
+        <v>-1066.52</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>12218.686134</v>
       </c>
       <c r="BO19" s="1">
-        <v>3.394079</v>
+        <v>3.3940790000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1977.270000</v>
+        <v>1977.27</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1847.500000</v>
+        <v>-1847.5</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>12229.258391</v>
+        <v>12229.258390999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>3.397016</v>
+        <v>3.3970159999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>2367.070000</v>
+        <v>2367.0700000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2748.570000</v>
+        <v>-2748.57</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>12240.052792</v>
       </c>
       <c r="BY19" s="1">
-        <v>3.400015</v>
+        <v>3.4000149999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2852.220000</v>
+        <v>2852.22</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3738.570000</v>
+        <v>-3738.57</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>12252.617980</v>
+        <v>12252.617980000001</v>
       </c>
       <c r="CD19" s="1">
         <v>3.403505</v>
       </c>
       <c r="CE19" s="1">
-        <v>4280.640000</v>
+        <v>4280.6400000000003</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6119.090000</v>
+        <v>-6119.09</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>12079.381246</v>
+        <v>12079.381246000001</v>
       </c>
       <c r="B20" s="1">
-        <v>3.355384</v>
+        <v>3.3553839999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1243.100000</v>
+        <v>1243.0999999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-305.689000</v>
+        <v>-305.68900000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>12089.805663</v>
+        <v>12089.805662999999</v>
       </c>
       <c r="G20" s="1">
         <v>3.358279</v>
       </c>
       <c r="H20" s="1">
-        <v>1268.560000</v>
+        <v>1268.56</v>
       </c>
       <c r="I20" s="1">
-        <v>-263.737000</v>
+        <v>-263.73700000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>12100.283154</v>
+        <v>12100.283154000001</v>
       </c>
       <c r="L20" s="1">
-        <v>3.361190</v>
+        <v>3.3611900000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1303.860000</v>
+        <v>1303.8599999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.104000</v>
+        <v>-202.10400000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>12110.817710</v>
+        <v>12110.817709999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>3.364116</v>
+        <v>3.3641160000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1315.870000</v>
+        <v>1315.87</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.096000</v>
+        <v>-184.096</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>12121.277814</v>
+        <v>12121.277813999999</v>
       </c>
       <c r="V20" s="1">
         <v>3.367022</v>
       </c>
       <c r="W20" s="1">
-        <v>1328.960000</v>
+        <v>1328.96</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.568000</v>
+        <v>-170.56800000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>12131.799483</v>
+        <v>12131.799483000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>3.369944</v>
+        <v>3.3699439999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>1346.030000</v>
+        <v>1346.03</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.672000</v>
+        <v>-168.672</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>12142.273002</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.372854</v>
+        <v>3.3728539999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1358.970000</v>
+        <v>1358.97</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.785000</v>
+        <v>-178.785</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>12152.816428</v>
       </c>
       <c r="AK20" s="1">
-        <v>3.375782</v>
+        <v>3.3757820000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1379.420000</v>
+        <v>1379.42</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.994000</v>
+        <v>-208.994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>12163.663965</v>
       </c>
       <c r="AP20" s="1">
-        <v>3.378796</v>
+        <v>3.3787959999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1400.960000</v>
+        <v>1400.96</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.262000</v>
+        <v>-253.262</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>12174.704384</v>
+        <v>12174.704384000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>3.381862</v>
+        <v>3.3818619999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1425.400000</v>
+        <v>1425.4</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.734000</v>
+        <v>-313.73399999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>12185.683856</v>
       </c>
       <c r="AZ20" s="1">
-        <v>3.384912</v>
+        <v>3.3849119999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1444.610000</v>
+        <v>1444.61</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.318000</v>
+        <v>-366.31799999999998</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>12197.492613</v>
       </c>
       <c r="BE20" s="1">
-        <v>3.388192</v>
+        <v>3.3881920000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1529.590000</v>
+        <v>1529.59</v>
       </c>
       <c r="BG20" s="1">
-        <v>-616.723000</v>
+        <v>-616.72299999999996</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>12207.774147</v>
       </c>
       <c r="BJ20" s="1">
-        <v>3.391048</v>
+        <v>3.3910480000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1683.390000</v>
+        <v>1683.39</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1066.570000</v>
+        <v>-1066.57</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>12219.092853</v>
       </c>
       <c r="BO20" s="1">
-        <v>3.394192</v>
+        <v>3.3941919999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1977.250000</v>
+        <v>1977.25</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1847.700000</v>
+        <v>-1847.7</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>12229.679003</v>
+        <v>12229.679002999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>3.397133</v>
+        <v>3.3971330000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>2367.260000</v>
+        <v>2367.2600000000002</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2748.890000</v>
+        <v>-2748.89</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>12240.817128</v>
+        <v>12240.817128000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>3.400227</v>
+        <v>3.4002270000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2853.030000</v>
+        <v>2853.03</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3738.810000</v>
+        <v>-3738.81</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>12253.455726</v>
       </c>
       <c r="CD20" s="1">
-        <v>3.403738</v>
+        <v>3.4037380000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>4288.930000</v>
+        <v>4288.93</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6133.290000</v>
+        <v>-6133.29</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>12079.724839</v>
       </c>
       <c r="B21" s="1">
-        <v>3.355479</v>
+        <v>3.3554789999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1242.990000</v>
+        <v>1242.99</v>
       </c>
       <c r="D21" s="1">
-        <v>-305.557000</v>
+        <v>-305.55700000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>12090.149428</v>
+        <v>12090.149428000001</v>
       </c>
       <c r="G21" s="1">
-        <v>3.358375</v>
+        <v>3.3583750000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1268.220000</v>
+        <v>1268.22</v>
       </c>
       <c r="I21" s="1">
-        <v>-263.947000</v>
+        <v>-263.947</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>12100.630384</v>
       </c>
       <c r="L21" s="1">
-        <v>3.361286</v>
+        <v>3.3612860000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>1304.620000</v>
+        <v>1304.6199999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.973000</v>
+        <v>-201.97300000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>12111.168382</v>
       </c>
       <c r="Q21" s="1">
-        <v>3.364213</v>
+        <v>3.3642129999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1315.940000</v>
+        <v>1315.94</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.997000</v>
+        <v>-183.99700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>12121.617606</v>
       </c>
       <c r="V21" s="1">
-        <v>3.367116</v>
+        <v>3.3671160000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>1328.950000</v>
+        <v>1328.95</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.575000</v>
+        <v>-170.57499999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>12132.147639</v>
+        <v>12132.147639000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.370041</v>
+        <v>3.3700410000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1346.080000</v>
+        <v>1346.08</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.742000</v>
+        <v>-168.74199999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>12142.617193</v>
       </c>
       <c r="AF21" s="1">
-        <v>3.372949</v>
+        <v>3.3729490000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>1358.860000</v>
+        <v>1358.86</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.747000</v>
+        <v>-178.74700000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>12153.164619</v>
+        <v>12153.164618999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>3.375879</v>
+        <v>3.3758789999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1379.410000</v>
+        <v>1379.41</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.946000</v>
+        <v>-208.946</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>12164.022573</v>
@@ -5484,88 +5900,88 @@
         <v>3.378895</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1400.960000</v>
+        <v>1400.96</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.273000</v>
+        <v>-253.273</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>12175.433010</v>
+        <v>12175.433010000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>3.382065</v>
+        <v>3.3820649999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1425.410000</v>
+        <v>1425.41</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.749000</v>
+        <v>-313.74900000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>12186.403039</v>
+        <v>12186.403039000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>3.385112</v>
+        <v>3.3851119999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1444.620000</v>
+        <v>1444.62</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.272000</v>
+        <v>-366.27199999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>12197.880945</v>
+        <v>12197.880945000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>3.388300</v>
+        <v>3.3883000000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1529.640000</v>
+        <v>1529.64</v>
       </c>
       <c r="BG21" s="1">
-        <v>-616.778000</v>
+        <v>-616.77800000000002</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>12208.152594</v>
+        <v>12208.152593999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>3.391153</v>
+        <v>3.3911530000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1683.400000</v>
+        <v>1683.4</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1066.610000</v>
+        <v>-1066.6099999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>12219.501556</v>
+        <v>12219.501555999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>3.394306</v>
+        <v>3.3943059999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1977.450000</v>
+        <v>1977.45</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1847.590000</v>
+        <v>-1847.59</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>12230.395685</v>
@@ -5574,225 +5990,225 @@
         <v>3.397332</v>
       </c>
       <c r="BU21" s="1">
-        <v>2367.480000</v>
+        <v>2367.48</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2749.040000</v>
+        <v>-2749.04</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>12240.957528</v>
+        <v>12240.957528000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>3.400266</v>
+        <v>3.4002659999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2852.790000</v>
+        <v>2852.79</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3738.120000</v>
+        <v>-3738.12</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>12253.699750</v>
+        <v>12253.69975</v>
       </c>
       <c r="CD21" s="1">
-        <v>3.403805</v>
+        <v>3.4038050000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>4303.980000</v>
+        <v>4303.9799999999996</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6122.070000</v>
+        <v>-6122.07</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>12080.065228</v>
+        <v>12080.065227999999</v>
       </c>
       <c r="B22" s="1">
-        <v>3.355574</v>
+        <v>3.3555739999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1243.120000</v>
+        <v>1243.1199999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-305.621000</v>
+        <v>-305.62099999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>12090.492142</v>
+        <v>12090.492141999999</v>
       </c>
       <c r="G22" s="1">
-        <v>3.358470</v>
+        <v>3.3584700000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1268.360000</v>
+        <v>1268.3599999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-263.895000</v>
+        <v>-263.89499999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>12100.976560</v>
+        <v>12100.976559999999</v>
       </c>
       <c r="L22" s="1">
-        <v>3.361382</v>
+        <v>3.3613819999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1304.330000</v>
+        <v>1304.33</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.092000</v>
+        <v>-202.09200000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>12111.515585</v>
+        <v>12111.515584999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>3.364310</v>
+        <v>3.3643100000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1316.020000</v>
+        <v>1316.02</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.104000</v>
+        <v>-184.10400000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>12122.305065</v>
       </c>
       <c r="V22" s="1">
-        <v>3.367307</v>
+        <v>3.3673069999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>1328.890000</v>
+        <v>1328.89</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.618000</v>
+        <v>-170.61799999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>12132.845510</v>
+        <v>12132.845509999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>3.370235</v>
+        <v>3.3702350000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1346.170000</v>
+        <v>1346.17</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.775000</v>
+        <v>-168.77500000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>12143.304685</v>
+        <v>12143.304684999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.373140</v>
+        <v>3.3731399999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>1358.940000</v>
+        <v>1358.94</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.693000</v>
+        <v>-178.69300000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>12153.860010</v>
+        <v>12153.86001</v>
       </c>
       <c r="AK22" s="1">
-        <v>3.376072</v>
+        <v>3.3760720000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1379.370000</v>
+        <v>1379.37</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.964000</v>
+        <v>-208.964</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>12164.742732</v>
+        <v>12164.742732000001</v>
       </c>
       <c r="AP22" s="1">
         <v>3.379095</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1400.920000</v>
+        <v>1400.92</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.234000</v>
+        <v>-253.23400000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>12175.824383</v>
+        <v>12175.824382999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>3.382173</v>
+        <v>3.3821729999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1425.410000</v>
+        <v>1425.41</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.752000</v>
+        <v>-313.75200000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>12186.780982</v>
       </c>
       <c r="AZ22" s="1">
-        <v>3.385217</v>
+        <v>3.3852169999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1444.670000</v>
+        <v>1444.67</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.273000</v>
+        <v>-366.27300000000002</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>12198.240047</v>
+        <v>12198.240046999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>3.388400</v>
+        <v>3.3883999999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1529.670000</v>
+        <v>1529.67</v>
       </c>
       <c r="BG22" s="1">
-        <v>-616.740000</v>
+        <v>-616.74</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>12208.834593</v>
@@ -5801,120 +6217,120 @@
         <v>3.391343</v>
       </c>
       <c r="BK22" s="1">
-        <v>1683.350000</v>
+        <v>1683.35</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1066.520000</v>
+        <v>-1066.52</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>12220.205906</v>
+        <v>12220.205905999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>3.394502</v>
+        <v>3.3945020000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1977.360000</v>
+        <v>1977.36</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1847.600000</v>
+        <v>-1847.6</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>12230.508277</v>
+        <v>12230.508277000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>3.397363</v>
+        <v>3.3973629999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2367.870000</v>
+        <v>2367.87</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2749.600000</v>
+        <v>-2749.6</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>12241.377110</v>
+        <v>12241.377109999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>3.400383</v>
+        <v>3.4003830000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2852.430000</v>
+        <v>2852.43</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3738.380000</v>
+        <v>-3738.38</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>12254.234433</v>
       </c>
       <c r="CD22" s="1">
-        <v>3.403954</v>
+        <v>3.4039540000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4279.490000</v>
+        <v>4279.49</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6114.560000</v>
+        <v>-6114.56</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>12080.748747</v>
       </c>
       <c r="B23" s="1">
-        <v>3.355764</v>
+        <v>3.3557640000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>1243.160000</v>
+        <v>1243.1600000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-305.808000</v>
+        <v>-305.80799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>12091.180077</v>
+        <v>12091.180077000001</v>
       </c>
       <c r="G23" s="1">
-        <v>3.358661</v>
+        <v>3.3586610000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1268.780000</v>
+        <v>1268.78</v>
       </c>
       <c r="I23" s="1">
-        <v>-264.993000</v>
+        <v>-264.99299999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>12101.671951</v>
       </c>
       <c r="L23" s="1">
-        <v>3.361576</v>
+        <v>3.3615759999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1304.330000</v>
+        <v>1304.33</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.378000</v>
+        <v>-202.37799999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>12112.210449</v>
@@ -5923,285 +6339,285 @@
         <v>3.364503</v>
       </c>
       <c r="R23" s="1">
-        <v>1316.020000</v>
+        <v>1316.02</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.104000</v>
+        <v>-184.10400000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>12122.649251</v>
+        <v>12122.649251000001</v>
       </c>
       <c r="V23" s="1">
-        <v>3.367403</v>
+        <v>3.3674029999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1328.920000</v>
+        <v>1328.92</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.698000</v>
+        <v>-170.69800000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>12133.194694</v>
       </c>
       <c r="AA23" s="1">
-        <v>3.370332</v>
+        <v>3.3703319999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1346.040000</v>
+        <v>1346.04</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.810000</v>
+        <v>-168.81</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>12143.647406</v>
       </c>
       <c r="AF23" s="1">
-        <v>3.373235</v>
+        <v>3.3732350000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1358.920000</v>
+        <v>1358.92</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.689000</v>
+        <v>-178.68899999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>12154.207738</v>
+        <v>12154.207737999999</v>
       </c>
       <c r="AK23" s="1">
         <v>3.376169</v>
       </c>
       <c r="AL23" s="1">
-        <v>1379.400000</v>
+        <v>1379.4</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.988000</v>
+        <v>-208.988</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>12165.105307</v>
       </c>
       <c r="AP23" s="1">
-        <v>3.379196</v>
+        <v>3.3791959999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1400.960000</v>
+        <v>1400.96</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.257000</v>
+        <v>-253.25700000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>12176.189437</v>
+        <v>12176.189437000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>3.382275</v>
+        <v>3.3822749999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1425.430000</v>
+        <v>1425.43</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.722000</v>
+        <v>-313.72199999999998</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>12187.158926</v>
       </c>
       <c r="AZ23" s="1">
-        <v>3.385322</v>
+        <v>3.3853219999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1444.670000</v>
+        <v>1444.67</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.282000</v>
+        <v>-366.28199999999998</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>12198.916094</v>
       </c>
       <c r="BE23" s="1">
-        <v>3.388588</v>
+        <v>3.3885879999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1529.640000</v>
+        <v>1529.64</v>
       </c>
       <c r="BG23" s="1">
-        <v>-616.735000</v>
+        <v>-616.73500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>12209.277522</v>
       </c>
       <c r="BJ23" s="1">
-        <v>3.391466</v>
+        <v>3.3914659999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1683.320000</v>
+        <v>1683.32</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1066.580000</v>
+        <v>-1066.58</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>12220.336322</v>
+        <v>12220.336321999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>3.394538</v>
+        <v>3.3945379999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1977.420000</v>
+        <v>1977.42</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1847.600000</v>
+        <v>-1847.6</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>12230.950212</v>
       </c>
       <c r="BT23" s="1">
-        <v>3.397486</v>
+        <v>3.3974859999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>2368.370000</v>
+        <v>2368.37</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2749.500000</v>
+        <v>-2749.5</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>12241.799701</v>
       </c>
       <c r="BY23" s="1">
-        <v>3.400500</v>
+        <v>3.4005000000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2852.440000</v>
+        <v>2852.44</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3738.120000</v>
+        <v>-3738.12</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>12254.774053</v>
+        <v>12254.774052999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>3.404104</v>
+        <v>3.4041039999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>4293.900000</v>
+        <v>4293.8999999999996</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6128.320000</v>
+        <v>-6128.32</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>12081.094923</v>
+        <v>12081.094923000001</v>
       </c>
       <c r="B24" s="1">
-        <v>3.355860</v>
+        <v>3.3558599999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>1243.070000</v>
+        <v>1243.07</v>
       </c>
       <c r="D24" s="1">
-        <v>-305.750000</v>
+        <v>-305.75</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>12091.528797</v>
+        <v>12091.528797000001</v>
       </c>
       <c r="G24" s="1">
-        <v>3.358758</v>
+        <v>3.3587579999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1268.600000</v>
+        <v>1268.5999999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-264.603000</v>
+        <v>-264.60300000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>12102.017166</v>
       </c>
       <c r="L24" s="1">
-        <v>3.361671</v>
+        <v>3.3616709999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1304.100000</v>
+        <v>1304.0999999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.990000</v>
+        <v>-201.99</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>12112.561644</v>
+        <v>12112.561643999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>3.364600</v>
+        <v>3.3645999999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>1315.940000</v>
+        <v>1315.94</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.111000</v>
+        <v>-184.11099999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>12122.990531</v>
+        <v>12122.990530999999</v>
       </c>
       <c r="V24" s="1">
-        <v>3.367497</v>
+        <v>3.3674970000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>1328.940000</v>
+        <v>1328.94</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.679000</v>
+        <v>-170.679</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>12133.540437</v>
@@ -6210,88 +6626,88 @@
         <v>3.370428</v>
       </c>
       <c r="AB24" s="1">
-        <v>1346.170000</v>
+        <v>1346.17</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.828000</v>
+        <v>-168.828</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>12143.992631</v>
+        <v>12143.992630999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>3.373331</v>
+        <v>3.3733309999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1358.860000</v>
+        <v>1358.86</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.769000</v>
+        <v>-178.76900000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>12154.554441</v>
       </c>
       <c r="AK24" s="1">
-        <v>3.376265</v>
+        <v>3.3762650000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1379.390000</v>
+        <v>1379.39</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.989000</v>
+        <v>-208.989</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>12165.465403</v>
       </c>
       <c r="AP24" s="1">
-        <v>3.379296</v>
+        <v>3.3792960000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1400.920000</v>
+        <v>1400.92</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.249000</v>
+        <v>-253.249</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>12176.889755</v>
       </c>
       <c r="AU24" s="1">
-        <v>3.382469</v>
+        <v>3.3824689999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1425.430000</v>
+        <v>1425.43</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.734000</v>
+        <v>-313.73399999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>12187.821085</v>
       </c>
       <c r="AZ24" s="1">
-        <v>3.385506</v>
+        <v>3.3855059999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1444.690000</v>
+        <v>1444.69</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.272000</v>
+        <v>-366.27199999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>12199.352606</v>
@@ -6300,73 +6716,73 @@
         <v>3.388709</v>
       </c>
       <c r="BF24" s="1">
-        <v>1529.600000</v>
+        <v>1529.6</v>
       </c>
       <c r="BG24" s="1">
-        <v>-616.754000</v>
+        <v>-616.75400000000002</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>12209.649520</v>
+        <v>12209.649520000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>3.391569</v>
+        <v>3.3915690000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1683.370000</v>
+        <v>1683.37</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1066.470000</v>
+        <v>-1066.47</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>12220.741554</v>
       </c>
       <c r="BO24" s="1">
-        <v>3.394650</v>
+        <v>3.3946499999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1977.290000</v>
+        <v>1977.29</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1847.410000</v>
+        <v>-1847.41</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>12231.356932</v>
+        <v>12231.356932000001</v>
       </c>
       <c r="BT24" s="1">
         <v>3.397599</v>
       </c>
       <c r="BU24" s="1">
-        <v>2368.110000</v>
+        <v>2368.11</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2750.320000</v>
+        <v>-2750.32</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>12242.254072</v>
       </c>
       <c r="BY24" s="1">
-        <v>3.400626</v>
+        <v>3.4006259999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2852.250000</v>
+        <v>2852.25</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3738.650000</v>
+        <v>-3738.65</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>12255.317668</v>
@@ -6375,90 +6791,90 @@
         <v>3.404255</v>
       </c>
       <c r="CE24" s="1">
-        <v>4296.410000</v>
+        <v>4296.41</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6111.100000</v>
+        <v>-6111.1</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>12081.431211</v>
+        <v>12081.431210999999</v>
       </c>
       <c r="B25" s="1">
         <v>3.355953</v>
       </c>
       <c r="C25" s="1">
-        <v>1242.920000</v>
+        <v>1242.92</v>
       </c>
       <c r="D25" s="1">
-        <v>-305.892000</v>
+        <v>-305.892</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>12091.873981</v>
+        <v>12091.873981000001</v>
       </c>
       <c r="G25" s="1">
         <v>3.358854</v>
       </c>
       <c r="H25" s="1">
-        <v>1268.420000</v>
+        <v>1268.42</v>
       </c>
       <c r="I25" s="1">
-        <v>-264.612000</v>
+        <v>-264.61200000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>12102.363375</v>
+        <v>12102.363375000001</v>
       </c>
       <c r="L25" s="1">
-        <v>3.361768</v>
+        <v>3.3617680000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1303.750000</v>
+        <v>1303.75</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.701000</v>
+        <v>-201.70099999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>12112.908358</v>
+        <v>12112.908358000001</v>
       </c>
       <c r="Q25" s="1">
         <v>3.364697</v>
       </c>
       <c r="R25" s="1">
-        <v>1315.900000</v>
+        <v>1315.9</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.102000</v>
+        <v>-184.102</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>12123.638802</v>
+        <v>12123.638801999999</v>
       </c>
       <c r="V25" s="1">
         <v>3.367677</v>
       </c>
       <c r="W25" s="1">
-        <v>1329.020000</v>
+        <v>1329.02</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.806000</v>
+        <v>-170.80600000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>12134.192681</v>
@@ -6467,437 +6883,438 @@
         <v>3.370609</v>
       </c>
       <c r="AB25" s="1">
-        <v>1346.090000</v>
+        <v>1346.09</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.794000</v>
+        <v>-168.79400000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>12144.633431</v>
       </c>
       <c r="AF25" s="1">
-        <v>3.373509</v>
+        <v>3.3735089999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1358.900000</v>
+        <v>1358.9</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.652000</v>
+        <v>-178.65199999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>12155.209129</v>
+        <v>12155.209129000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>3.376447</v>
+        <v>3.3764470000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1379.370000</v>
+        <v>1379.37</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.972000</v>
+        <v>-208.97200000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>12166.132059</v>
       </c>
       <c r="AP25" s="1">
-        <v>3.379481</v>
+        <v>3.3794810000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1400.920000</v>
+        <v>1400.92</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.233000</v>
+        <v>-253.233</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>12177.308875</v>
+        <v>12177.308875000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>3.382586</v>
+        <v>3.3825859999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1425.420000</v>
+        <v>1425.42</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.733000</v>
+        <v>-313.733</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>12188.242188</v>
       </c>
       <c r="AZ25" s="1">
-        <v>3.385623</v>
+        <v>3.3856229999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1444.700000</v>
+        <v>1444.7</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.277000</v>
+        <v>-366.27699999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>12199.715645</v>
       </c>
       <c r="BE25" s="1">
-        <v>3.388810</v>
+        <v>3.3888099999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1529.630000</v>
+        <v>1529.63</v>
       </c>
       <c r="BG25" s="1">
-        <v>-616.732000</v>
+        <v>-616.73199999999997</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>12210.030945</v>
       </c>
       <c r="BJ25" s="1">
-        <v>3.391675</v>
+        <v>3.3916750000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1683.340000</v>
+        <v>1683.34</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1066.440000</v>
+        <v>-1066.44</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>12221.144305</v>
       </c>
       <c r="BO25" s="1">
-        <v>3.394762</v>
+        <v>3.3947620000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1977.350000</v>
+        <v>1977.35</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1847.330000</v>
+        <v>-1847.33</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>12231.785475</v>
+        <v>12231.785475000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>3.397718</v>
+        <v>3.3977179999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>2368.550000</v>
+        <v>2368.5500000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2750.500000</v>
+        <v>-2750.5</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>12242.672196</v>
       </c>
       <c r="BY25" s="1">
-        <v>3.400742</v>
+        <v>3.4007420000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2852.150000</v>
+        <v>2852.15</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3738.500000</v>
+        <v>-3738.5</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>12255.855827</v>
+        <v>12255.855826999999</v>
       </c>
       <c r="CD25" s="1">
         <v>3.404404</v>
       </c>
       <c r="CE25" s="1">
-        <v>4280.200000</v>
+        <v>4280.2</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6123.140000</v>
+        <v>-6123.14</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>12082.070058</v>
+        <v>12082.070057999999</v>
       </c>
       <c r="B26" s="1">
         <v>3.356131</v>
       </c>
       <c r="C26" s="1">
-        <v>1243.320000</v>
+        <v>1243.32</v>
       </c>
       <c r="D26" s="1">
-        <v>-305.499000</v>
+        <v>-305.49900000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>12092.513859</v>
+        <v>12092.513859000001</v>
       </c>
       <c r="G26" s="1">
         <v>3.359032</v>
       </c>
       <c r="H26" s="1">
-        <v>1268.800000</v>
+        <v>1268.8</v>
       </c>
       <c r="I26" s="1">
-        <v>-264.686000</v>
+        <v>-264.68599999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>12103.004734</v>
       </c>
       <c r="L26" s="1">
-        <v>3.361946</v>
+        <v>3.3619460000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1304.300000</v>
+        <v>1304.3</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.286000</v>
+        <v>-202.286</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>12113.563039</v>
+        <v>12113.563039000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>3.364879</v>
+        <v>3.3648790000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>1315.980000</v>
+        <v>1315.98</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.023000</v>
+        <v>-184.023</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>12124.021681</v>
       </c>
       <c r="V26" s="1">
-        <v>3.367784</v>
+        <v>3.3677839999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1328.980000</v>
+        <v>1328.98</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.740000</v>
+        <v>-170.74</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>12134.586656</v>
+        <v>12134.586655999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>3.370719</v>
+        <v>3.3707189999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1345.880000</v>
+        <v>1345.88</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.900000</v>
+        <v>-168.9</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>12145.022790</v>
+        <v>12145.022790000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.373617</v>
+        <v>3.3736169999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1358.880000</v>
+        <v>1358.88</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.713000</v>
+        <v>-178.71299999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>12155.598488</v>
       </c>
       <c r="AK26" s="1">
-        <v>3.376555</v>
+        <v>3.3765550000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>1379.390000</v>
+        <v>1379.39</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.978000</v>
+        <v>-208.97800000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>12166.575945</v>
+        <v>12166.575945000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>3.379604</v>
+        <v>3.3796040000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1400.940000</v>
+        <v>1400.94</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.249000</v>
+        <v>-253.249</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>12177.673931</v>
+        <v>12177.673930999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>3.382687</v>
+        <v>3.3826870000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1425.420000</v>
+        <v>1425.42</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.726000</v>
+        <v>-313.726</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>12188.616668</v>
+        <v>12188.616668000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>3.385727</v>
+        <v>3.3857270000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1444.700000</v>
+        <v>1444.7</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.269000</v>
+        <v>-366.26900000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>12200.075741</v>
+        <v>12200.075741000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>3.388910</v>
+        <v>3.3889100000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1529.610000</v>
+        <v>1529.61</v>
       </c>
       <c r="BG26" s="1">
-        <v>-616.730000</v>
+        <v>-616.73</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>12210.438655</v>
       </c>
       <c r="BJ26" s="1">
-        <v>3.391789</v>
+        <v>3.3917890000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1683.340000</v>
+        <v>1683.34</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1066.530000</v>
+        <v>-1066.53</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>12221.564448</v>
+        <v>12221.564447999999</v>
       </c>
       <c r="BO26" s="1">
         <v>3.394879</v>
       </c>
       <c r="BP26" s="1">
-        <v>1977.130000</v>
+        <v>1977.13</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1847.430000</v>
+        <v>-1847.43</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>12232.199138</v>
       </c>
       <c r="BT26" s="1">
-        <v>3.397833</v>
+        <v>3.3978329999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2368.190000</v>
+        <v>2368.19</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2751.290000</v>
+        <v>-2751.29</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>12243.118068</v>
       </c>
       <c r="BY26" s="1">
-        <v>3.400866</v>
+        <v>3.4008660000000002</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2852.920000</v>
+        <v>2852.92</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3738.730000</v>
+        <v>-3738.73</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>12256.395972</v>
       </c>
       <c r="CD26" s="1">
-        <v>3.404554</v>
+        <v>3.4045540000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4303.120000</v>
+        <v>4303.12</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6122.740000</v>
+        <v>-6122.74</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>